--- a/system_code/src/main/resources/ErrorCode.xlsx
+++ b/system_code/src/main/resources/ErrorCode.xlsx
@@ -578,7 +578,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -639,6 +639,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1002</v>
+      </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -650,6 +653,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1003</v>
+      </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -664,6 +670,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1004</v>
+      </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -678,6 +687,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1005</v>
+      </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -692,6 +704,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1006</v>
+      </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -703,6 +718,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1007</v>
+      </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -717,6 +735,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1008</v>
+      </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -728,6 +749,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1009</v>
+      </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -739,6 +763,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1010</v>
+      </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -750,6 +777,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1011</v>
+      </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -761,6 +791,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1012</v>
+      </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
@@ -772,6 +805,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1013</v>
+      </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -783,6 +819,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1014</v>
+      </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -793,7 +832,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1015</v>
+      </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
@@ -804,7 +846,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1016</v>
+      </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
@@ -815,7 +860,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1017</v>
+      </c>
       <c r="B19" t="s">
         <v>45</v>
       </c>
@@ -826,7 +874,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1018</v>
+      </c>
       <c r="B20" t="s">
         <v>47</v>
       </c>
@@ -837,7 +888,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1019</v>
+      </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
@@ -848,7 +902,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1020</v>
+      </c>
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -859,7 +916,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1021</v>
+      </c>
       <c r="B23" t="s">
         <v>52</v>
       </c>

--- a/system_code/src/main/resources/ErrorCode.xlsx
+++ b/system_code/src/main/resources/ErrorCode.xlsx
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +246,10 @@
   </si>
   <si>
     <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +578,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -595,13 +595,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -626,16 +626,16 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -643,13 +643,13 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -657,16 +657,16 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -674,16 +674,16 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -691,16 +691,16 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -708,13 +708,13 @@
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,16 +722,16 @@
         <v>1007</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,13 +739,13 @@
         <v>1008</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,13 +753,13 @@
         <v>1009</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -767,13 +767,13 @@
         <v>1010</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -781,13 +781,13 @@
         <v>1011</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -795,13 +795,13 @@
         <v>1012</v>
       </c>
       <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -809,13 +809,13 @@
         <v>1013</v>
       </c>
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -823,13 +823,13 @@
         <v>1014</v>
       </c>
       <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -837,13 +837,13 @@
         <v>1015</v>
       </c>
       <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -851,13 +851,13 @@
         <v>1016</v>
       </c>
       <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,13 +865,13 @@
         <v>1017</v>
       </c>
       <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
         <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,13 +879,13 @@
         <v>1018</v>
       </c>
       <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
         <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -893,13 +893,13 @@
         <v>1019</v>
       </c>
       <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
         <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,13 +907,13 @@
         <v>1020</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,13 +921,13 @@
         <v>1021</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/system_code/src/main/resources/ErrorCode.xlsx
+++ b/system_code/src/main/resources/ErrorCode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,14 @@
   </si>
   <si>
     <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用错误码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -930,6 +938,20 @@
         <v>53</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1099</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/system_code/src/main/resources/ErrorCode.xlsx
+++ b/system_code/src/main/resources/ErrorCode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,14 @@
   </si>
   <si>
     <t>测试用错误码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_LOGS_NOT_FOUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志读取失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -940,15 +948,29 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>1022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>1099</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
         <v>59</v>
       </c>
     </row>

--- a/system_code/src/main/resources/ErrorCode.xlsx
+++ b/system_code/src/main/resources/ErrorCode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,14 @@
   </si>
   <si>
     <t>日志读取失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_LOGOUT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -962,15 +970,29 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>1023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>1099</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
         <v>59</v>
       </c>
     </row>

--- a/system_code/src/main/resources/ErrorCode.xlsx
+++ b/system_code/src/main/resources/ErrorCode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,14 @@
   </si>
   <si>
     <t>注销失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NONE_ACCOUNTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发现任何账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -984,15 +992,29 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>1024</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>1099</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
         <v>59</v>
       </c>
     </row>

--- a/system_code/src/main/resources/ErrorCode.xlsx
+++ b/system_code/src/main/resources/ErrorCode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数为空，或不存在，或类型错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未分类错误，未命名错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,6 +278,22 @@
   </si>
   <si>
     <t>未发现任何账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PARAMS_MISSING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数缺失或不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为空，或缺失或不存在，或类型错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -627,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -667,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -698,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -726,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -743,7 +755,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -754,16 +766,16 @@
         <v>1007</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -771,13 +783,13 @@
         <v>1008</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,13 +797,13 @@
         <v>1009</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -799,13 +811,13 @@
         <v>1010</v>
       </c>
       <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -813,13 +825,13 @@
         <v>1011</v>
       </c>
       <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -827,13 +839,13 @@
         <v>1012</v>
       </c>
       <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,13 +853,13 @@
         <v>1013</v>
       </c>
       <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -855,167 +867,184 @@
         <v>1014</v>
       </c>
       <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1015</v>
       </c>
       <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1016</v>
       </c>
       <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1017</v>
       </c>
       <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1018</v>
       </c>
       <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1019</v>
       </c>
       <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1020</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1021</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1022</v>
       </c>
       <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
         <v>60</v>
       </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1023</v>
       </c>
       <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
         <v>62</v>
       </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1024</v>
       </c>
       <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
         <v>64</v>
       </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1025</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>1099</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
         <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/system_code/src/main/resources/ErrorCode.xlsx
+++ b/system_code/src/main/resources/ErrorCode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,63 +77,271 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>concept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ACCOUNT_NOT_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户未激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能或接口未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未分类错误，未命名错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不允许创建同名账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_AUTHENTICATE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令已锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TOKEN_EXPIRED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN已失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_VERIFY_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NOT_AUTHENTICATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TOO_MANY_REQUESTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求过于频繁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TIME_OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_SEND_MAIL_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮件失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PROJECT_NAME_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_POLICY_NAME_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略名已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CREATE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_UPDATE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_REMOVE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用错误码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_LOGS_NOT_FOUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志读取失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_LOGOUT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NONE_ACCOUNTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发现任何账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PARAMS_MISSING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数缺失或不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为空，或缺失或不存在，或类型错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ACCOUNT_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ERROR_INVALID_ACCOUNT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>concept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ACCOUNT_NOT_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户未激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能或接口未实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未分类错误，未命名错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ACCOUNT_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不允许创建同名账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_AUTHENTICATE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_PASSWORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令错误</t>
+    <t>ERROR_FAIL_GUEST_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联guest角色失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_DEL_ACCOUNT_ROLE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除账户角色失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除账户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_DEL_ACCOUNT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_REVOKE_ACCOUNT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ACTIVATE_ACCOUNT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收账户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活账户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁口令失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -141,159 +349,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>口令已锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TOKEN_EXPIRED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKEN已失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_VERIFY_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误的验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NOT_AUTHENTICATED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TOO_MANY_REQUESTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求过于频繁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TIME_OUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_SEND_MAIL_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送邮件失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PROJECT_NAME_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_POLICY_NAME_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略名已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_CREATE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_UPDATE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_REMOVE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authentication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用错误码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_LOGS_NOT_FOUND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志读取失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_LOGOUT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注销失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NONE_ACCOUNTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未发现任何账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PARAMS_MISSING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数缺失或不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为空，或缺失或不存在，或类型错误</t>
+    <t>ERROR_UNLOCK_PASSWORD_FAILED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,16 +675,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="4" max="4" width="29.33203125" customWidth="1"/>
     <col min="5" max="5" width="63.5546875" customWidth="1"/>
@@ -639,13 +695,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -679,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -727,7 +783,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,16 +791,16 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -752,13 +808,13 @@
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -766,16 +822,16 @@
         <v>1007</v>
       </c>
       <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -783,13 +839,13 @@
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -797,13 +853,13 @@
         <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -811,13 +867,13 @@
         <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -825,13 +881,13 @@
         <v>1011</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -839,13 +895,13 @@
         <v>1012</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -853,13 +909,13 @@
         <v>1013</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -867,13 +923,13 @@
         <v>1014</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -881,13 +937,13 @@
         <v>1015</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -895,13 +951,13 @@
         <v>1016</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,13 +965,13 @@
         <v>1017</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -923,13 +979,13 @@
         <v>1018</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,13 +993,13 @@
         <v>1019</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -951,13 +1007,13 @@
         <v>1020</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -965,13 +1021,13 @@
         <v>1021</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -979,13 +1035,13 @@
         <v>1022</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -993,13 +1049,13 @@
         <v>1023</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1007,13 +1063,13 @@
         <v>1024</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1021,30 +1077,114 @@
         <v>1025</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>1026</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1027</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1028</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1029</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1030</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1031</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>1099</v>
       </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>58</v>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/system_code/src/main/resources/ErrorCode.xlsx
+++ b/system_code/src/main/resources/ErrorCode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,295 +61,311 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>无效参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NOT_IMPLEMENTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ACCOUNT_NOT_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能或接口未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未分类错误，未命名错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不允许创建同名账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_AUTHENTICATE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令已锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TOKEN_EXPIRED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN已失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_VERIFY_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NOT_AUTHENTICATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TOO_MANY_REQUESTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求过于频繁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TIME_OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_SEND_MAIL_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮件失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PROJECT_NAME_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_POLICY_NAME_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略名已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CREATE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_UPDATE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_REMOVE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用错误码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_LOGS_NOT_FOUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志读取失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_LOGOUT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NONE_ACCOUNTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发现任何账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PARAMS_MISSING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数缺失或不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为空，或缺失或不存在，或类型错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ACCOUNT_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_FAIL_GUEST_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联guest角色失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_DEL_ACCOUNT_ROLE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除账户角色失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除账户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_DEL_ACCOUNT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_REVOKE_ACCOUNT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ACTIVATE_ACCOUNT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收账户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活账户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁口令失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PASSWORD_LOCKED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_UNLOCK_PASSWORD_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户未激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ILLEGAL_USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ERROR_INVALID_PARAMETER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无效参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NOT_IMPLEMENTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>concept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ACCOUNT_NOT_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户未激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能或接口未实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未分类错误，未命名错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不允许创建同名账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_AUTHENTICATE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_PASSWORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令已锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TOKEN_EXPIRED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKEN已失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_VERIFY_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误的验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NOT_AUTHENTICATED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TOO_MANY_REQUESTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求过于频繁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TIME_OUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_SEND_MAIL_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送邮件失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PROJECT_NAME_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_POLICY_NAME_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略名已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_CREATE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_UPDATE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_REMOVE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authentication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用错误码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_LOGS_NOT_FOUND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志读取失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_LOGOUT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注销失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NONE_ACCOUNTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未发现任何账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PARAMS_MISSING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数缺失或不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为空，或缺失或不存在，或类型错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ACCOUNT_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_FAIL_GUEST_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authorization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联guest角色失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_DEL_ACCOUNT_ROLE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除账户角色失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除账户失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_DEL_ACCOUNT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_REVOKE_ACCOUNT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ACTIVATE_ACCOUNT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收账户失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活账户失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁口令失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PASSWORD_LOCKED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_UNLOCK_PASSWORD_FAILED</t>
+    <t>ERROR_NEW_PWD_EQUALS_OLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不允许新旧密码完全一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -695,13 +711,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -735,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -757,16 +773,16 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -774,16 +790,16 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,16 +807,16 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -808,13 +824,13 @@
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -822,16 +838,16 @@
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -839,13 +855,13 @@
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -853,13 +869,13 @@
         <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -867,13 +883,13 @@
         <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -881,13 +897,13 @@
         <v>1011</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -895,13 +911,13 @@
         <v>1012</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,13 +925,13 @@
         <v>1013</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -923,13 +939,13 @@
         <v>1014</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,13 +953,13 @@
         <v>1015</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -951,13 +967,13 @@
         <v>1016</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -965,13 +981,13 @@
         <v>1017</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -979,13 +995,13 @@
         <v>1018</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -993,13 +1009,13 @@
         <v>1019</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1007,13 +1023,13 @@
         <v>1020</v>
       </c>
       <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1021,13 +1037,13 @@
         <v>1021</v>
       </c>
       <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
         <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1035,13 +1051,13 @@
         <v>1022</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1049,13 +1065,13 @@
         <v>1023</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1063,13 +1079,13 @@
         <v>1024</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1077,16 +1093,16 @@
         <v>1025</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
       <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
         <v>62</v>
-      </c>
-      <c r="E27" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1094,13 +1110,13 @@
         <v>1026</v>
       </c>
       <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1108,13 +1124,13 @@
         <v>1027</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1122,13 +1138,13 @@
         <v>1028</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1136,13 +1152,13 @@
         <v>1029</v>
       </c>
       <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
         <v>75</v>
       </c>
-      <c r="C31" t="s">
-        <v>77</v>
-      </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1150,13 +1166,13 @@
         <v>1030</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
         <v>77</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,27 +1180,55 @@
         <v>1031</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>1032</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1033</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>1099</v>
       </c>
-      <c r="B34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>55</v>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/system_code/src/main/resources/ErrorCode.xlsx
+++ b/system_code/src/main/resources/ErrorCode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,259 +113,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>口令错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令已锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TOKEN_EXPIRED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN已失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_VERIFY_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NOT_AUTHENTICATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TOO_MANY_REQUESTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求过于频繁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TIME_OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_SEND_MAIL_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮件失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PROJECT_NAME_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_POLICY_NAME_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略名已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CREATE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_UPDATE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_REMOVE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用错误码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_LOGS_NOT_FOUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志读取失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_LOGOUT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NONE_ACCOUNTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发现任何账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PARAMS_MISSING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数缺失或不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为空，或缺失或不存在，或类型错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ACCOUNT_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_FAIL_GUEST_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联guest角色失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_DEL_ACCOUNT_ROLE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除账户角色失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除账户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_DEL_ACCOUNT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_REVOKE_ACCOUNT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ACTIVATE_ACCOUNT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收账户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活账户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁口令失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PASSWORD_LOCKED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_UNLOCK_PASSWORD_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NEW_PWD_EQUALS_OLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户未激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ILLEGAL_USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_PARAMETER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ERROR_INVALID_PASSWORD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>口令错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令已锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TOKEN_EXPIRED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKEN已失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_VERIFY_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误的验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NOT_AUTHENTICATED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TOO_MANY_REQUESTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求过于频繁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TIME_OUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_SEND_MAIL_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送邮件失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PROJECT_NAME_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_POLICY_NAME_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略名已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_CREATE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_UPDATE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_REMOVE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authentication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用错误码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_LOGS_NOT_FOUND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志读取失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_LOGOUT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注销失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NONE_ACCOUNTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未发现任何账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PARAMS_MISSING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数缺失或不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为空，或缺失或不存在，或类型错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ACCOUNT_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_FAIL_GUEST_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authorization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联guest角色失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_DEL_ACCOUNT_ROLE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除账户角色失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除账户失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_DEL_ACCOUNT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_REVOKE_ACCOUNT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ACTIVATE_ACCOUNT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收账户失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活账户失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁口令失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PASSWORD_LOCKED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_UNLOCK_PASSWORD_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户未激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ILLEGAL_USER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_PARAMETER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NEW_PWD_EQUALS_OLD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不允许新旧密码完全一致</t>
+    <t>不允许新旧口令完全一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CHANGE_PWD_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改口令失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -711,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -782,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +815,10 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -827,7 +835,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -838,10 +846,10 @@
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -858,7 +866,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -869,13 +877,13 @@
         <v>1009</v>
       </c>
       <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -883,13 +891,13 @@
         <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -897,13 +905,13 @@
         <v>1011</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -911,13 +919,13 @@
         <v>1012</v>
       </c>
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -925,13 +933,13 @@
         <v>1013</v>
       </c>
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -939,13 +947,13 @@
         <v>1014</v>
       </c>
       <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -953,13 +961,13 @@
         <v>1015</v>
       </c>
       <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -967,13 +975,13 @@
         <v>1016</v>
       </c>
       <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -981,13 +989,13 @@
         <v>1017</v>
       </c>
       <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,13 +1003,13 @@
         <v>1018</v>
       </c>
       <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1009,13 +1017,13 @@
         <v>1019</v>
       </c>
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1023,13 +1031,13 @@
         <v>1020</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1037,13 +1045,13 @@
         <v>1021</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,13 +1059,13 @@
         <v>1022</v>
       </c>
       <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1065,13 +1073,13 @@
         <v>1023</v>
       </c>
       <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
         <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,13 +1087,13 @@
         <v>1024</v>
       </c>
       <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
         <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1093,16 +1101,16 @@
         <v>1025</v>
       </c>
       <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
         <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,13 +1118,13 @@
         <v>1026</v>
       </c>
       <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>67</v>
-      </c>
-      <c r="D28" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1124,13 +1132,13 @@
         <v>1027</v>
       </c>
       <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
         <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1138,13 +1146,13 @@
         <v>1028</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1152,13 +1160,13 @@
         <v>1029</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
         <v>75</v>
-      </c>
-      <c r="D31" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1166,13 +1174,13 @@
         <v>1030</v>
       </c>
       <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
         <v>74</v>
       </c>
-      <c r="C32" t="s">
-        <v>75</v>
-      </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1180,13 +1188,13 @@
         <v>1031</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1197,7 +1205,7 @@
         <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
         <v>83</v>
@@ -1208,10 +1216,10 @@
         <v>1033</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
         <v>86</v>
@@ -1219,16 +1227,30 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>1034</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>1099</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
         <v>52</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/system_code/src/main/resources/ErrorCode.xlsx
+++ b/system_code/src/main/resources/ErrorCode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,295 +85,359 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>功能或接口未实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未分类错误，未命名错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不允许创建同名账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_AUTHENTICATE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令已锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TOKEN_EXPIRED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN已失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_VERIFY_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NOT_AUTHENTICATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TOO_MANY_REQUESTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求过于频繁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TIME_OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_SEND_MAIL_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮件失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PROJECT_NAME_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_POLICY_NAME_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略名已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CREATE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_UPDATE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_REMOVE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用错误码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_LOGS_NOT_FOUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志读取失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_LOGOUT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NONE_ACCOUNTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发现任何账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PARAMS_MISSING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数缺失或不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为空，或缺失或不存在，或类型错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ACCOUNT_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_FAIL_GUEST_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联guest角色失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_DEL_ACCOUNT_ROLE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除账户角色失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除账户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_DEL_ACCOUNT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_REVOKE_ACCOUNT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ACTIVATE_ACCOUNT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收账户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活账户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁口令失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PASSWORD_LOCKED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_UNLOCK_PASSWORD_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NEW_PWD_EQUALS_OLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户未激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_PARAMETER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不允许新旧口令完全一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CHANGE_PWD_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改口令失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NONE_ROLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ROLE_NOT_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定角色不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ILLEGAL_USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_ROLE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定角色已存在或重名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ROLE_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ERROR_ACCOUNT_NOT_EXIST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>功能或接口未实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未分类错误，未命名错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不允许创建同名账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_AUTHENTICATE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令已锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TOKEN_EXPIRED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKEN已失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_VERIFY_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误的验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NOT_AUTHENTICATED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TOO_MANY_REQUESTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求过于频繁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TIME_OUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_SEND_MAIL_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送邮件失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PROJECT_NAME_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_POLICY_NAME_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略名已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_CREATE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_UPDATE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_REMOVE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authentication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用错误码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_LOGS_NOT_FOUND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志读取失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_LOGOUT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注销失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NONE_ACCOUNTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未发现任何账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PARAMS_MISSING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数缺失或不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为空，或缺失或不存在，或类型错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ACCOUNT_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_FAIL_GUEST_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authorization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联guest角色失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_DEL_ACCOUNT_ROLE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除账户角色失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除账户失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_DEL_ACCOUNT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_REVOKE_ACCOUNT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ACTIVATE_ACCOUNT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收账户失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活账户失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁口令失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PASSWORD_LOCKED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_UNLOCK_PASSWORD_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NEW_PWD_EQUALS_OLD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户未激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ILLEGAL_USER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_PARAMETER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_PASSWORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不允许新旧口令完全一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_CHANGE_PWD_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改口令失败</t>
+    <t>ERROR_ADD_ACC_ROLE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加账户角色失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发现任何角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发现任何权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定权限不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定权限已存在或重名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PERM_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NONE_PERMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PERM_NOT_EXIST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -719,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -759,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -781,7 +845,7 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -790,7 +854,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -815,16 +879,16 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -832,10 +896,10 @@
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -846,16 +910,16 @@
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
         <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -863,13 +927,13 @@
         <v>1008</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -877,13 +941,13 @@
         <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -891,13 +955,13 @@
         <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -905,13 +969,13 @@
         <v>1011</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -919,13 +983,13 @@
         <v>1012</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -933,13 +997,13 @@
         <v>1013</v>
       </c>
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -947,13 +1011,13 @@
         <v>1014</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,13 +1025,13 @@
         <v>1015</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -975,13 +1039,13 @@
         <v>1016</v>
       </c>
       <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -989,13 +1053,13 @@
         <v>1017</v>
       </c>
       <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1003,13 +1067,13 @@
         <v>1018</v>
       </c>
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,13 +1081,13 @@
         <v>1019</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1031,13 +1095,13 @@
         <v>1020</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,13 +1109,13 @@
         <v>1021</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1059,13 +1123,13 @@
         <v>1022</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1073,13 +1137,13 @@
         <v>1023</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1087,13 +1151,13 @@
         <v>1024</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,16 +1165,16 @@
         <v>1025</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1118,13 +1182,13 @@
         <v>1026</v>
       </c>
       <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
         <v>65</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1132,13 +1196,13 @@
         <v>1027</v>
       </c>
       <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
         <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,13 +1210,13 @@
         <v>1028</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,13 +1224,13 @@
         <v>1029</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
         <v>74</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1174,13 +1238,13 @@
         <v>1030</v>
       </c>
       <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
         <v>73</v>
       </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1188,13 +1252,13 @@
         <v>1031</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1202,13 +1266,13 @@
         <v>1032</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1216,13 +1280,13 @@
         <v>1033</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,27 +1294,139 @@
         <v>1034</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1099</v>
+        <v>1035</v>
       </c>
       <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1036</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1037</v>
+      </c>
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1038</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1039</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1040</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1041</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1042</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1999</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
         <v>51</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/system_code/src/main/resources/ErrorCode.xlsx
+++ b/system_code/src/main/resources/ErrorCode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,71 +373,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>指定角色不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ILLEGAL_USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_ROLE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定角色已存在或重名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ROLE_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ACCOUNT_NOT_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ADD_ACC_ROLE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加账户角色失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发现任何角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发现任何权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定权限不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定权限已存在或重名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NONE_PERMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PERM_NOT_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PERM_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ERROR_ROLE_NOT_EXIST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指定角色不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ILLEGAL_USER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_ROLE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定角色已存在或重名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ROLE_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ACCOUNT_NOT_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ADD_ACC_ROLE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加账户角色失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未发现任何角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未发现任何权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定权限不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定权限已存在或重名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PERM_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NONE_PERMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PERM_NOT_EXIST</t>
+    <t>ERROR_ADD_ROLE_PERM_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加角色权限失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除角色权限失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_DEL_ROLE_PERM_FAILED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -896,7 +912,7 @@
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
@@ -1266,7 +1282,7 @@
         <v>1032</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
         <v>73</v>
@@ -1314,7 +1330,7 @@
         <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1322,13 +1338,13 @@
         <v>1036</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
         <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1336,13 +1352,13 @@
         <v>1037</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
         <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1350,13 +1366,13 @@
         <v>1038</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
         <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1364,13 +1380,13 @@
         <v>1039</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
         <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1378,13 +1394,13 @@
         <v>1040</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
         <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1392,13 +1408,13 @@
         <v>1041</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
         <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,26 +1422,54 @@
         <v>1042</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
         <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>1043</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1044</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>1999</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>3</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>51</v>
       </c>
     </row>

--- a/system_code/src/main/resources/ErrorCode.xlsx
+++ b/system_code/src/main/resources/ErrorCode.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="113">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,13 +454,29 @@
   </si>
   <si>
     <t>ERROR_DEL_ROLE_PERM_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_LICENSE_INVALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效的License</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authentication</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -779,22 +795,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="37.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="63.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="37.25" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="5" max="5" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -811,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -825,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -842,7 +858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -856,7 +872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -873,7 +889,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -890,7 +906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -907,7 +923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -921,7 +937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -938,7 +954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -952,7 +968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -966,7 +982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -980,7 +996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -994,7 +1010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -1008,7 +1024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -1016,13 +1032,13 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -1036,7 +1052,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -1050,7 +1066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -1064,7 +1080,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -1078,7 +1094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -1092,7 +1108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -1106,7 +1122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -1120,7 +1136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -1134,7 +1150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1022</v>
       </c>
@@ -1148,7 +1164,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1023</v>
       </c>
@@ -1162,7 +1178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1024</v>
       </c>
@@ -1176,7 +1192,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1025</v>
       </c>
@@ -1193,7 +1209,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1026</v>
       </c>
@@ -1207,7 +1223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1027</v>
       </c>
@@ -1221,7 +1237,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1028</v>
       </c>
@@ -1235,7 +1251,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -1249,7 +1265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -1263,7 +1279,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1031</v>
       </c>
@@ -1277,7 +1293,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1032</v>
       </c>
@@ -1291,7 +1307,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1033</v>
       </c>
@@ -1305,7 +1321,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1034</v>
       </c>
@@ -1319,7 +1335,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1035</v>
       </c>
@@ -1333,7 +1349,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1036</v>
       </c>
@@ -1347,7 +1363,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1037</v>
       </c>
@@ -1361,7 +1377,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1038</v>
       </c>
@@ -1375,7 +1391,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1039</v>
       </c>
@@ -1389,7 +1405,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1040</v>
       </c>
@@ -1403,7 +1419,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1041</v>
       </c>
@@ -1417,7 +1433,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1042</v>
       </c>
@@ -1431,7 +1447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1043</v>
       </c>
@@ -1445,7 +1461,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1044</v>
       </c>
@@ -1459,7 +1475,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1999</v>
       </c>
@@ -1471,6 +1487,20 @@
       </c>
       <c r="D47" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2000</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/system_code/src/main/resources/ErrorCode.xlsx
+++ b/system_code/src/main/resources/ErrorCode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,263 +213,291 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用错误码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_LOGS_NOT_FOUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志读取失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_LOGOUT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NONE_ACCOUNTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发现任何账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PARAMS_MISSING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数缺失或不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为空，或缺失或不存在，或类型错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ACCOUNT_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_FAIL_GUEST_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联guest角色失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_DEL_ACCOUNT_ROLE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除账户角色失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除账户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_DEL_ACCOUNT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_REVOKE_ACCOUNT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ACTIVATE_ACCOUNT_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收账户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活账户失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁口令失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PASSWORD_LOCKED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_UNLOCK_PASSWORD_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NEW_PWD_EQUALS_OLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户未激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_PARAMETER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不允许新旧口令完全一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CHANGE_PWD_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改口令失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NONE_ROLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定角色不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ILLEGAL_USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_INVALID_ROLE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定角色已存在或重名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ROLE_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ACCOUNT_NOT_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ADD_ACC_ROLE_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加账户角色失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发现任何角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发现任何权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定权限不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定权限已存在或重名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NONE_PERMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PERM_NOT_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_PERM_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ROLE_NOT_EXIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ADD_ROLE_PERM_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加角色权限失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除角色权限失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_DEL_ROLE_PERM_FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_LICENSE_INVALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效的License</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_TEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用错误码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_LOGS_NOT_FOUND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志读取失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_LOGOUT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注销失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NONE_ACCOUNTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未发现任何账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PARAMS_MISSING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数缺失或不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为空，或缺失或不存在，或类型错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ACCOUNT_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_FAIL_GUEST_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authorization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联guest角色失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_DEL_ACCOUNT_ROLE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除账户角色失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除账户失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_DEL_ACCOUNT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_REVOKE_ACCOUNT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ACTIVATE_ACCOUNT_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收账户失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活账户失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁口令失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PASSWORD_LOCKED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_UNLOCK_PASSWORD_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NEW_PWD_EQUALS_OLD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户未激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_PARAMETER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_PASSWORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不允许新旧口令完全一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_CHANGE_PWD_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改口令失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NONE_ROLES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定角色不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ILLEGAL_USER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_INVALID_ROLE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定角色已存在或重名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ROLE_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ACCOUNT_NOT_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ADD_ACC_ROLE_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加账户角色失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未发现任何角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未发现任何权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定权限不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定权限已存在或重名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NONE_PERMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PERM_NOT_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_PERM_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ROLE_NOT_EXIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_ADD_ROLE_PERM_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加角色权限失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除角色权限失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_DEL_ROLE_PERM_FAILED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_LICENSE_INVALID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效的License</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authentication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>authentication</t>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_AUTHENTICATE_FAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_AUTHENTICATE_SUCCESS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -815,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -877,7 +905,7 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -886,7 +914,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -911,7 +939,7 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -920,7 +948,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -928,7 +956,7 @@
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
@@ -942,7 +970,7 @@
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -973,7 +1001,7 @@
         <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -987,7 +1015,7 @@
         <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -1032,7 +1060,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -1088,7 +1116,7 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
@@ -1102,7 +1130,7 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
@@ -1130,7 +1158,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
         <v>44</v>
@@ -1155,13 +1183,13 @@
         <v>1022</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1169,13 +1197,13 @@
         <v>1023</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1183,13 +1211,13 @@
         <v>1024</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1197,16 +1225,16 @@
         <v>1025</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1214,13 +1242,13 @@
         <v>1026</v>
       </c>
       <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1228,13 +1256,13 @@
         <v>1027</v>
       </c>
       <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
         <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1242,13 +1270,13 @@
         <v>1028</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
         <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1256,13 +1284,13 @@
         <v>1029</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
         <v>73</v>
-      </c>
-      <c r="D31" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1270,13 +1298,13 @@
         <v>1030</v>
       </c>
       <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
         <v>72</v>
       </c>
-      <c r="C32" t="s">
-        <v>73</v>
-      </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1284,13 +1312,13 @@
         <v>1031</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1298,13 +1326,13 @@
         <v>1032</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1312,13 +1340,13 @@
         <v>1033</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1326,13 +1354,13 @@
         <v>1034</v>
       </c>
       <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
         <v>85</v>
-      </c>
-      <c r="C36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1340,13 +1368,13 @@
         <v>1035</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1354,13 +1382,13 @@
         <v>1036</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1368,13 +1396,13 @@
         <v>1037</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1382,13 +1410,13 @@
         <v>1038</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1396,13 +1424,13 @@
         <v>1039</v>
       </c>
       <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1410,13 +1438,13 @@
         <v>1040</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1424,13 +1452,13 @@
         <v>1041</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1438,13 +1466,13 @@
         <v>1042</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1452,13 +1480,13 @@
         <v>1043</v>
       </c>
       <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
         <v>105</v>
-      </c>
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1466,13 +1494,13 @@
         <v>1044</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1480,13 +1508,13 @@
         <v>1999</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1494,13 +1522,41 @@
         <v>2000</v>
       </c>
       <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" t="s">
         <v>109</v>
       </c>
-      <c r="C48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" t="s">
-        <v>110</v>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2001</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2002</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/system_code/src/main/resources/ErrorCode.xlsx
+++ b/system_code/src/main/resources/ErrorCode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="122">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,6 +498,14 @@
   </si>
   <si>
     <t>ERROR_AUTHENTICATE_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备不在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NOT_ONLINE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1559,6 +1567,20 @@
         <v>117</v>
       </c>
     </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2003</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
